--- a/ExcelData/TC_LeaveBalance.xlsx
+++ b/ExcelData/TC_LeaveBalance.xlsx
@@ -37,10 +37,10 @@
     <t>leaveBalance</t>
   </si>
   <si>
-    <t xml:space="preserve">1 August 2023 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31 August 2023 </t>
+    <t>2023-August-1</t>
+  </si>
+  <si>
+    <t>2023-August-31</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ExcelData/TC_LeaveBalance.xlsx
+++ b/ExcelData/TC_LeaveBalance.xlsx
@@ -25,9 +25,6 @@
     <t>leaveTypeName</t>
   </si>
   <si>
-    <t>Paid Leave</t>
-  </si>
-  <si>
     <t>leaveBalanceStartDate</t>
   </si>
   <si>
@@ -41,6 +38,9 @@
   </si>
   <si>
     <t>2023-August-31</t>
+  </si>
+  <si>
+    <t>Casual Leave</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,27 +384,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
       </c>
       <c r="D2">
         <v>20</v>
